--- a/GRis/Content/ExcelTemplates/ServerSalariesMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerSalariesMonthlyReportTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NAME</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -405,43 +411,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
